--- a/DIC/Lab2/Task5/N=7/task5_N7.xlsx
+++ b/DIC/Lab2/Task5/N=7/task5_N7.xlsx
@@ -557,70 +557,70 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.46e-12</v>
+        <v>6.483e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>5.323e-12</v>
+        <v>5.593e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>5.891e-12</v>
+        <v>6.038e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.771e-12</v>
+        <v>4.302e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>4.179e-12</v>
+        <v>4.034e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>4.475e-12</v>
+        <v>4.168e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>4.303e-12</v>
+        <v>4.458e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>4.181e-12</v>
+        <v>4.206e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>4.242e-12</v>
+        <v>4.332e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>4.519e-12</v>
+        <v>4.443e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>4.278e-12</v>
+        <v>4.234e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>4.399e-12</v>
+        <v>4.339e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>4.385e-12</v>
+        <v>4.36e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>4.18e-12</v>
+        <v>4.134e-12</v>
       </c>
       <c r="O2" t="n">
+        <v>4.247e-12</v>
+      </c>
+      <c r="P2" t="n">
         <v>4.282e-12</v>
       </c>
-      <c r="P2" t="n">
-        <v>4.348e-12</v>
-      </c>
       <c r="Q2" t="n">
-        <v>4.124e-12</v>
+        <v>4.066e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>4.236e-12</v>
+        <v>4.174e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>4.462e-12</v>
+        <v>4.389e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131e-12</v>
+        <v>4.12e-12</v>
       </c>
       <c r="U2" t="n">
-        <v>4.297e-12</v>
+        <v>4.255e-12</v>
       </c>
       <c r="V2" t="n">
-        <v>3.182e-11</v>
+        <v>3.155e-11</v>
       </c>
       <c r="W2" t="n">
         <v>25</v>
